--- a/mosip_master/xlsx/daysofweek_list.xlsx
+++ b/mosip_master/xlsx/daysofweek_list.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED8BE30-6804-4FEB-AC4A-593276B49DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF5BFF2-F8C3-4038-BEB4-1360D9682CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D187E002-0C5A-4C39-B235-A22107FDFCE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +45,7 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>fra</t>
+    <t>eng</t>
   </si>
   <si>
     <t>SUN</t>
@@ -73,39 +73,40 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -117,6 +118,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -176,52 +192,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -258,7 +264,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -270,7 +276,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -317,23 +323,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -369,23 +358,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,176 +509,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAB6D1F-5979-49F4-B64C-5393CA24F476}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.453125" style="1"/>
+    <col min="5" max="6" width="8.453125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
         <v>101</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="b">
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="b">
+      <c r="F2" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10">
         <v>102</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="b">
+      <c r="E3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10">
         <v>103</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="b">
+      <c r="E4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
         <v>104</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="b">
+      <c r="E5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10">
         <v>105</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="b">
+      <c r="E6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
         <v>106</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="b">
+      <c r="D7" s="10">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
         <v>107</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="b">
+      <c r="E8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="b">
-        <v>1</v>
-      </c>
+      <c r="F8" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>